--- a/src/main/resources/static/data.xlsx
+++ b/src/main/resources/static/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>接口地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,35 +56,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>token=579250f3af3149505946b046845b081f</t>
+    <t>http://localhost:28019/api/v1/user/login?token=579250f3af3149505946b046845b081f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试校验类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8088/demo/shopProduct_my?id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8088/demo//postShopProduct1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8088/demo//postShopProduct2?name=测试带参数自动生成部分参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-  "loginName":"13627664629",
-  "passwordMd5":"723d505516e0c197e42a6be3c0af910e"
+        "name": "TATA木门 T001B",
+        "shopPrice": 2170,
+        "salePrice": 2170,
+        "score": 210,
+        "disable": false,
+        "createTime": "2020-05-12 09:59:04",
+        "img": "https://pic.scjyzj.com/UploadFile/Product/20200621/38f73c11d887469c8d47f8e4e13dfe08.jpg",
+        "itemName": "木门",
+        "model": "T001B",
+        "priceUnit": "樘",
+        "sort": 999,
+        "id": 1,
+        "recommend": false
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:28019/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:28019/api/v1/user/login?token=579250f3af3149505946b046845b081f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试校验类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{
+        "name": "TATA木门 T001B",
+        "shopPrice": 2170,
+        "salePrice": 2170,
+        "score": 210,
+        "disable": false,
+        "createTime": "2020-05-12 09:59:04",
+        "img": "https://pic.scjyzj.com/UploadFile/Product/20200621/38f73c11d887469c8d47f8e4e13dfe08.jpg",
+        "itemName": "木门",
+        "model": "T001B",
+        "priceUnit": "樘",
+        "sort": 999,
+        "id": 1,
+        "recommend": false
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+        "name": "TATA木门 T001B",
+        "shopPrice": 2170,
+        "salePrice": 2170,
+        "score": 210,
+        "disable": false,
+        "createTime": "2020-05-12 09:59:04",
+        "img": "https://pic.scjyzj.com/UploadFile/Product/20200621/38f73c11d887469c8d47f8e4e13dfe08.jpg",
+        "itemName": "木门",
+        "model": "T001B",
+        "priceUnit": "樘",
+        "sort": 999,
+        "id": 1,
+        "recommend": false
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX002</t>
+  </si>
+  <si>
+    <t>TX003</t>
+  </si>
+  <si>
+    <t>TX004</t>
   </si>
 </sst>
 </file>
@@ -476,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="43.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -495,7 +555,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -510,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -526,44 +586,44 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H2" s="3">
         <v>200</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -578,6 +638,91 @@
         <v>1</v>
       </c>
       <c r="J3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>500</v>
+      </c>
+      <c r="H4" s="3">
+        <v>500</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>500</v>
+      </c>
+      <c r="H5" s="3">
+        <v>500</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>500</v>
+      </c>
+      <c r="H6" s="3">
+        <v>500</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -586,8 +731,11 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>